--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielabaquero/Documents/MCB 536/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C878B44-9EC0-6B46-BB02-AA07328468D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="43">
   <si>
     <t>NA</t>
   </si>
@@ -140,16 +140,35 @@
   </si>
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Device calibration status</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +181,13 @@
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -177,16 +198,24 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -210,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -313,11 +342,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +380,45 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +810,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -775,7 +854,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -799,11 +878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="30" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1"/>
@@ -818,12 +897,15 @@
     <col min="16" max="16" width="52.83203125" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="20" max="20" width="11.5" style="1"/>
-    <col min="21" max="21" width="19.83203125" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="47.83203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="28.5" style="5" customWidth="1"/>
+    <col min="23" max="24" width="11.5" style="5"/>
+    <col min="25" max="25" width="33.1640625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="52.1640625" style="5" customWidth="1"/>
     <col min="29" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" ht="79" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:26" ht="79" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -842,7 +924,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -859,7 +941,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -876,7 +958,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:26" ht="62" x14ac:dyDescent="0.3">
       <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
@@ -898,8 +980,26 @@
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
@@ -939,8 +1039,26 @@
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="36">
+        <v>41471</v>
+      </c>
+      <c r="W7" s="35">
+        <v>2</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C8" s="18">
         <v>41471</v>
       </c>
@@ -978,8 +1096,26 @@
         <v>117</v>
       </c>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="36">
+        <v>41471</v>
+      </c>
+      <c r="W8" s="35">
+        <v>7</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C9" s="18">
         <v>41471</v>
       </c>
@@ -1019,8 +1155,26 @@
         <v>126</v>
       </c>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="36">
+        <v>41471</v>
+      </c>
+      <c r="W9" s="35">
+        <v>3</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C10" s="18">
         <v>41471</v>
       </c>
@@ -1058,8 +1212,26 @@
         <v>27</v>
       </c>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="36">
+        <v>41471</v>
+      </c>
+      <c r="W10" s="35">
+        <v>1</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C11" s="18">
         <v>41471</v>
       </c>
@@ -1097,8 +1269,26 @@
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="36">
+        <v>41473</v>
+      </c>
+      <c r="W11" s="35">
+        <v>3</v>
+      </c>
+      <c r="X11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="35">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C12" s="18">
         <v>41473</v>
       </c>
@@ -1138,8 +1328,26 @@
         <v>122</v>
       </c>
       <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="36">
+        <v>41473</v>
+      </c>
+      <c r="W12" s="35">
+        <v>7</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="35">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C13" s="18">
         <v>41473</v>
       </c>
@@ -1179,8 +1387,26 @@
         <v>107</v>
       </c>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="36">
+        <v>41473</v>
+      </c>
+      <c r="W13" s="35">
+        <v>4</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C14" s="18">
         <v>41473</v>
       </c>
@@ -1212,8 +1438,26 @@
         <v>115</v>
       </c>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U14" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="36">
+        <v>41473</v>
+      </c>
+      <c r="W14" s="35">
+        <v>6</v>
+      </c>
+      <c r="X14" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="35">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C15" s="19">
         <v>41473</v>
       </c>
@@ -1237,8 +1481,26 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="36">
+        <v>41505</v>
+      </c>
+      <c r="W15" s="35">
+        <v>8</v>
+      </c>
+      <c r="X15" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="35">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1254,8 +1516,26 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="36">
+        <v>41564</v>
+      </c>
+      <c r="W16" s="35">
+        <v>3</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1271,8 +1551,26 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="36">
+        <v>41564</v>
+      </c>
+      <c r="W17" s="35">
+        <v>3</v>
+      </c>
+      <c r="X17" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="35">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1288,8 +1586,26 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="36">
+        <v>41618</v>
+      </c>
+      <c r="W18" s="35">
+        <v>9</v>
+      </c>
+      <c r="X18" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1305,8 +1621,26 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="36">
+        <v>41618</v>
+      </c>
+      <c r="W19" s="35">
+        <v>1</v>
+      </c>
+      <c r="X19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="35">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1322,8 +1656,26 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="36">
+        <v>41619</v>
+      </c>
+      <c r="W20" s="35">
+        <v>8</v>
+      </c>
+      <c r="X20" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1339,8 +1691,26 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="36">
+        <v>41590</v>
+      </c>
+      <c r="W21" s="35">
+        <v>9</v>
+      </c>
+      <c r="X21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="35">
+        <v>117</v>
+      </c>
+      <c r="Z21" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1356,8 +1726,26 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W22" s="35">
+        <v>11</v>
+      </c>
+      <c r="X22" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="35">
+        <v>126</v>
+      </c>
+      <c r="Z22" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1365,8 +1753,26 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U23" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W23" s="35">
+        <v>17</v>
+      </c>
+      <c r="X23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="35">
+        <v>132</v>
+      </c>
+      <c r="Z23" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1374,23 +1780,95 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W24" s="35">
+        <v>14</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="35">
+        <v>113</v>
+      </c>
+      <c r="Z24" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G25" s="5"/>
       <c r="L25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U25" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W25" s="35">
+        <v>11</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="35">
+        <v>122</v>
+      </c>
+      <c r="Z25" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G26" s="5"/>
       <c r="L26" s="5"/>
       <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W26" s="35">
+        <v>4</v>
+      </c>
+      <c r="X26" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="35">
+        <v>107</v>
+      </c>
+      <c r="Z26" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G27" s="5"/>
       <c r="L27" s="5"/>
       <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="36">
+        <v>41591</v>
+      </c>
+      <c r="W27" s="35">
+        <v>4</v>
+      </c>
+      <c r="X27" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="35">
+        <v>115</v>
+      </c>
+      <c r="Z27" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G28" s="5"/>
       <c r="L28" s="5"/>
       <c r="Q28" s="5"/>
@@ -1408,31 +1886,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:S47"/>
+  <dimension ref="C2:AH50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="1"/>
+    <col min="5" max="5" width="11.5" style="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.5" style="1"/>
     <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
     <col min="15" max="19" width="11.5" style="1"/>
+    <col min="21" max="21" width="32.5" customWidth="1"/>
+    <col min="22" max="22" width="28.83203125" style="31" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" customWidth="1"/>
+    <col min="24" max="24" width="16.1640625" customWidth="1"/>
+    <col min="25" max="25" width="23.1640625" customWidth="1"/>
+    <col min="26" max="26" width="50.1640625" style="24" customWidth="1"/>
+    <col min="27" max="27" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:26" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:26" ht="62" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1454,8 +1941,26 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1495,8 +2000,26 @@
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="29">
+        <v>41648</v>
+      </c>
+      <c r="W7" s="22">
+        <v>1</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>41648</v>
       </c>
@@ -1532,8 +2055,26 @@
         <v>8</v>
       </c>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="29">
+        <v>41648</v>
+      </c>
+      <c r="W8" s="22">
+        <v>1</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C9" s="6">
         <v>41648</v>
       </c>
@@ -1571,8 +2112,26 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="29">
+        <v>41711</v>
+      </c>
+      <c r="W9" s="22">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>41711</v>
       </c>
@@ -1606,8 +2165,26 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="29">
+        <v>41711</v>
+      </c>
+      <c r="W10" s="22">
+        <v>1</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>41711</v>
       </c>
@@ -1647,8 +2224,26 @@
         <v>182</v>
       </c>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W11" s="22">
+        <v>2</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>41711</v>
       </c>
@@ -1684,8 +2279,26 @@
         <v>29</v>
       </c>
       <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W12" s="22">
+        <v>2</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1717,8 +2330,26 @@
         <v>115</v>
       </c>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="29">
+        <v>41688</v>
+      </c>
+      <c r="W13" s="22">
+        <v>2</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>52</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1746,8 +2377,26 @@
         <v>190</v>
       </c>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="29">
+        <v>28498</v>
+      </c>
+      <c r="W14" s="22">
+        <v>4</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1771,8 +2420,26 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="29">
+        <v>28498</v>
+      </c>
+      <c r="W15" s="22">
+        <v>4</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>48</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" ht="30" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1796,8 +2463,26 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="29">
+        <v>28498</v>
+      </c>
+      <c r="W16" s="23">
+        <v>4</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1821,8 +2506,33 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="29">
+        <v>41711</v>
+      </c>
+      <c r="W17" s="22">
+        <v>1</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>146</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+    </row>
+    <row r="18" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1838,8 +2548,33 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W18" s="23">
+        <v>2</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="23">
+        <v>157</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+    </row>
+    <row r="19" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1855,8 +2590,33 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W19" s="22">
+        <v>2</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+    </row>
+    <row r="20" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1872,8 +2632,33 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="29">
+        <v>41688</v>
+      </c>
+      <c r="W20" s="22">
+        <v>2</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+    </row>
+    <row r="21" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1889,8 +2674,33 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="3:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="U21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="29">
+        <v>42074</v>
+      </c>
+      <c r="W21" s="22">
+        <v>3</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+    </row>
+    <row r="22" spans="3:34" ht="31" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1908,8 +2718,33 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W22" s="23">
+        <v>2</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+    </row>
+    <row r="23" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1925,8 +2760,33 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
+        <v>42102</v>
+      </c>
+      <c r="W23" s="22">
+        <v>3</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>182</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+    </row>
+    <row r="24" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1942,8 +2802,33 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>42142</v>
+      </c>
+      <c r="W24" s="22">
+        <v>3</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>115</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+    </row>
+    <row r="25" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1959,8 +2844,33 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="29">
+        <v>42193</v>
+      </c>
+      <c r="W25" s="22">
+        <v>3</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>190</v>
+      </c>
+      <c r="Z25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+    </row>
+    <row r="26" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1976,8 +2886,33 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
+        <v>42193</v>
+      </c>
+      <c r="W26" s="30">
+        <v>3</v>
+      </c>
+      <c r="X26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>218</v>
+      </c>
+      <c r="Z26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+    </row>
+    <row r="27" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2930,33 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W27" s="30">
+        <v>2</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+    </row>
+    <row r="28" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2018,8 +2978,33 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="29">
+        <v>42130</v>
+      </c>
+      <c r="W28" s="30">
+        <v>3</v>
+      </c>
+      <c r="X28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+    </row>
+    <row r="29" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>28498</v>
       </c>
@@ -2041,8 +3026,33 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U29" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W29" s="30">
+        <v>2</v>
+      </c>
+      <c r="X29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+    </row>
+    <row r="30" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>28498</v>
       </c>
@@ -2062,8 +3072,33 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="29">
+        <v>41647</v>
+      </c>
+      <c r="W30" s="30">
+        <v>2</v>
+      </c>
+      <c r="X30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+    </row>
+    <row r="31" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>28498</v>
       </c>
@@ -2085,8 +3120,33 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="29">
+        <v>42164</v>
+      </c>
+      <c r="W31" s="22">
+        <v>3</v>
+      </c>
+      <c r="X31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>29</v>
+      </c>
+      <c r="Z31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+    </row>
+    <row r="32" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>28498</v>
       </c>
@@ -2108,8 +3168,34 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="29">
+        <v>28498</v>
+      </c>
+      <c r="W32" s="22">
+        <v>4</v>
+      </c>
+      <c r="X32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="22">
+        <v>52</v>
+      </c>
+      <c r="Z32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+    </row>
+    <row r="33" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>28498</v>
       </c>
@@ -2131,8 +3217,34 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="U33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" s="29">
+        <v>28498</v>
+      </c>
+      <c r="W33" s="22">
+        <v>4</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>35</v>
+      </c>
+      <c r="Z33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+    </row>
+    <row r="34" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2148,8 +3260,16 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+    </row>
+    <row r="35" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2165,8 +3285,16 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+    </row>
+    <row r="36" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2182,8 +3310,16 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+    </row>
+    <row r="37" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2197,14 +3333,17 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+    </row>
+    <row r="38" spans="3:34" ht="179" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="28"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2214,10 +3353,16 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+    </row>
+    <row r="39" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2225,9 +3370,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+    <row r="40" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -2235,47 +3378,71 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+    <row r="41" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="V41" s="33"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L42" s="5"/>
       <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="V42" s="33"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+    </row>
+    <row r="43" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L43" s="5"/>
       <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="G44" s="5"/>
+      <c r="V43" s="33"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L44" s="5"/>
       <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="G45" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L45" s="5"/>
       <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="G46" s="5"/>
+      <c r="V45" s="33"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+    </row>
+    <row r="46" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L46" s="5"/>
       <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="G47" s="5"/>
+      <c r="V46" s="33"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+    </row>
+    <row r="47" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="L47" s="5"/>
       <c r="Q47" s="5"/>
+      <c r="V47" s="33"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+    </row>
+    <row r="48" spans="3:34" ht="30" x14ac:dyDescent="0.3">
+      <c r="V48" s="33"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" spans="22:25" ht="30" x14ac:dyDescent="0.3">
+      <c r="V49" s="33"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+    </row>
+    <row r="50" spans="22:25" ht="30" x14ac:dyDescent="0.3">
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/data/Survey Data.xlsx
+++ b/data/Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielabaquero/Documents/MCB 536/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BA180-E3E3-364A-AD36-5A1A15F6CA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2399C659-480D-0846-AFEB-6385E3A19EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="3060" windowWidth="35660" windowHeight="16200" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="44">
   <si>
     <t>NA</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>Field season</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +410,12 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +808,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -843,7 +852,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -865,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:AH62"/>
+  <dimension ref="C2:AH75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -893,12 +902,12 @@
     <col min="27" max="27" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:26" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:27" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:26" ht="62" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:27" ht="62" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="Z6" s="26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA6" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
@@ -979,26 +991,29 @@
         <v>10</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="U7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="27">
-        <v>41648</v>
-      </c>
-      <c r="W7" s="21">
-        <v>1</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="21">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="33">
+        <v>41471</v>
+      </c>
+      <c r="W7" s="32">
+        <v>2</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>41648</v>
       </c>
@@ -1034,26 +1049,29 @@
         <v>8</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="U8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="27">
-        <v>41648</v>
-      </c>
-      <c r="W8" s="21">
-        <v>1</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="21">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="33">
+        <v>41471</v>
+      </c>
+      <c r="W8" s="32">
+        <v>7</v>
+      </c>
+      <c r="X8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>41648</v>
       </c>
@@ -1091,26 +1109,29 @@
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="4"/>
-      <c r="U9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="27">
-        <v>41711</v>
-      </c>
-      <c r="W9" s="21">
-        <v>1</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="21">
-        <v>51</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="33">
+        <v>41471</v>
+      </c>
+      <c r="W9" s="32">
+        <v>3</v>
+      </c>
+      <c r="X9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>41711</v>
       </c>
@@ -1144,26 +1165,29 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="4"/>
-      <c r="U10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="27">
-        <v>41711</v>
-      </c>
-      <c r="W10" s="21">
-        <v>1</v>
-      </c>
-      <c r="X10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="21">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="33">
+        <v>41471</v>
+      </c>
+      <c r="W10" s="32">
+        <v>1</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>41711</v>
       </c>
@@ -1203,26 +1227,29 @@
         <v>182</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="U11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W11" s="21">
-        <v>2</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="21">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="33">
+        <v>41473</v>
+      </c>
+      <c r="W11" s="32">
+        <v>3</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>41711</v>
       </c>
@@ -1258,26 +1285,29 @@
         <v>29</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="U12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W12" s="21">
-        <v>2</v>
-      </c>
-      <c r="X12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="21">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="33">
+        <v>41473</v>
+      </c>
+      <c r="W12" s="32">
+        <v>7</v>
+      </c>
+      <c r="X12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1309,26 +1339,29 @@
         <v>115</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="U13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="27">
-        <v>41688</v>
-      </c>
-      <c r="W13" s="21">
-        <v>2</v>
-      </c>
-      <c r="X13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="21">
-        <v>52</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="U13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="33">
+        <v>41473</v>
+      </c>
+      <c r="W13" s="32">
+        <v>4</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1356,26 +1389,29 @@
         <v>190</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="U14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="27">
-        <v>28498</v>
-      </c>
-      <c r="W14" s="21">
-        <v>4</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="21">
+      <c r="U14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="33">
+        <v>41473</v>
+      </c>
+      <c r="W14" s="32">
+        <v>6</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="32">
         <v>37</v>
       </c>
-      <c r="Z14" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="Z14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1403,22 +1439,25 @@
         <v>2</v>
       </c>
       <c r="V15" s="27">
-        <v>28498</v>
+        <v>41648</v>
       </c>
       <c r="W15" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="21">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA15" s="28">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1446,19 +1485,22 @@
         <v>2</v>
       </c>
       <c r="V16" s="27">
-        <v>28498</v>
-      </c>
-      <c r="W16" s="22">
-        <v>4</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>0</v>
+        <v>41648</v>
+      </c>
+      <c r="W16" s="21">
+        <v>1</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>2014</v>
       </c>
     </row>
     <row r="17" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -1486,7 +1528,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="U17" s="21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" s="27">
         <v>41711</v>
@@ -1498,10 +1540,13 @@
         <v>3</v>
       </c>
       <c r="Y17" s="21">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="Z17" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA17" s="28">
+        <v>2014</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -1527,23 +1572,26 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="U18" s="22" t="s">
-        <v>5</v>
+      <c r="U18" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="V18" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W18" s="22">
-        <v>2</v>
-      </c>
-      <c r="X18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="22">
-        <v>157</v>
+        <v>41711</v>
+      </c>
+      <c r="W18" s="21">
+        <v>1</v>
+      </c>
+      <c r="X18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>44</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="AA18" s="28">
+        <v>2014</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -1570,7 +1618,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="U19" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" s="27">
         <v>41647</v>
@@ -1579,13 +1627,16 @@
         <v>2</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="21">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="Z19" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA19" s="28">
+        <v>2014</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -1612,22 +1663,25 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="U20" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" s="27">
-        <v>41688</v>
+        <v>41647</v>
       </c>
       <c r="W20" s="21">
         <v>2</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="21">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Z20" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA20" s="28">
+        <v>2014</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -1654,22 +1708,25 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="U21" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V21" s="27">
-        <v>42074</v>
+        <v>41688</v>
       </c>
       <c r="W21" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X21" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Y21" s="21">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="Z21" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>2014</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -1697,23 +1754,26 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="U22" s="22" t="s">
-        <v>0</v>
+      <c r="U22" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="V22" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W22" s="22">
-        <v>2</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>0</v>
+        <v>28498</v>
+      </c>
+      <c r="W22" s="21">
+        <v>4</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>37</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="28">
+        <v>2014</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -1740,22 +1800,25 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="U23" s="21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" s="27">
-        <v>42102</v>
+        <v>28498</v>
       </c>
       <c r="W23" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" s="21" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="21">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="Z23" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>2014</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -1782,22 +1845,25 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="U24" s="21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" s="27">
-        <v>42142</v>
-      </c>
-      <c r="W24" s="21">
-        <v>3</v>
-      </c>
-      <c r="X24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="21">
-        <v>115</v>
-      </c>
-      <c r="Z24" s="21" t="s">
-        <v>41</v>
+        <v>28498</v>
+      </c>
+      <c r="W24" s="22">
+        <v>4</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="28">
+        <v>2014</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -1824,22 +1890,25 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="U25" s="21" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" s="27">
-        <v>42193</v>
+        <v>41711</v>
       </c>
       <c r="W25" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="21">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="AA25" s="28">
+        <v>2014</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -1865,23 +1934,26 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="U26" s="28" t="s">
-        <v>0</v>
+      <c r="U26" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="V26" s="27">
-        <v>42193</v>
-      </c>
-      <c r="W26" s="28">
-        <v>3</v>
-      </c>
-      <c r="X26" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="28">
-        <v>218</v>
+        <v>41647</v>
+      </c>
+      <c r="W26" s="22">
+        <v>2</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>157</v>
       </c>
       <c r="Z26" s="21" t="s">
         <v>40</v>
+      </c>
+      <c r="AA26" s="28">
+        <v>2014</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -1909,23 +1981,26 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="U27" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V27" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W27" s="28">
-        <v>2</v>
-      </c>
-      <c r="X27" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="28" t="s">
-        <v>0</v>
+      <c r="U27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W27" s="32">
+        <v>11</v>
+      </c>
+      <c r="X27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>126</v>
+      </c>
+      <c r="Z27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>2013</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -1957,23 +2032,26 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="U28" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="27">
-        <v>42130</v>
-      </c>
-      <c r="W28" s="28">
-        <v>3</v>
-      </c>
-      <c r="X28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="21" t="s">
-        <v>0</v>
+      <c r="U28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V28" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W28" s="32">
+        <v>17</v>
+      </c>
+      <c r="X28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>132</v>
+      </c>
+      <c r="Z28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="28">
+        <v>2013</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -2005,23 +2083,26 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="U29" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="V29" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W29" s="28">
-        <v>2</v>
-      </c>
-      <c r="X29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="28" t="s">
-        <v>0</v>
+      <c r="U29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W29" s="32">
+        <v>14</v>
+      </c>
+      <c r="X29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>113</v>
+      </c>
+      <c r="Z29" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="28">
+        <v>2013</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -2051,23 +2132,26 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="U30" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="V30" s="27">
-        <v>41647</v>
-      </c>
-      <c r="W30" s="28">
-        <v>2</v>
-      </c>
-      <c r="X30" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="28" t="s">
-        <v>0</v>
+      <c r="U30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W30" s="32">
+        <v>11</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>122</v>
+      </c>
+      <c r="Z30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA30" s="28">
+        <v>2013</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -2099,23 +2183,26 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="U31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="V31" s="27">
-        <v>42164</v>
-      </c>
-      <c r="W31" s="21">
-        <v>3</v>
-      </c>
-      <c r="X31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y31" s="21">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="21" t="s">
-        <v>41</v>
+      <c r="U31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W31" s="32">
+        <v>4</v>
+      </c>
+      <c r="X31" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>107</v>
+      </c>
+      <c r="Z31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA31" s="28">
+        <v>2013</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -2147,25 +2234,27 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="U32" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32" s="27">
-        <v>28498</v>
-      </c>
-      <c r="W32" s="21">
+      <c r="U32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="33">
+        <v>41591</v>
+      </c>
+      <c r="W32" s="32">
         <v>4</v>
       </c>
-      <c r="X32" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="21">
-        <v>52</v>
-      </c>
-      <c r="Z32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA32" s="4"/>
+      <c r="X32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>115</v>
+      </c>
+      <c r="Z32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" s="28">
+        <v>2013</v>
+      </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -2196,25 +2285,27 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="U33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="V33" s="27">
-        <v>28498</v>
-      </c>
-      <c r="W33" s="21">
-        <v>4</v>
-      </c>
-      <c r="X33" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="21">
-        <v>35</v>
-      </c>
-      <c r="Z33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA33" s="4"/>
+      <c r="U33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="33">
+        <v>41590</v>
+      </c>
+      <c r="W33" s="32">
+        <v>9</v>
+      </c>
+      <c r="X33" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>117</v>
+      </c>
+      <c r="Z33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" s="32">
+        <v>2013</v>
+      </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -2239,7 +2330,27 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="AA34" s="4"/>
+      <c r="U34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="27">
+        <v>41647</v>
+      </c>
+      <c r="W34" s="21">
+        <v>2</v>
+      </c>
+      <c r="X34" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA34" s="32">
+        <v>2014</v>
+      </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -2264,7 +2375,27 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="AA35" s="4"/>
+      <c r="U35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="27">
+        <v>41688</v>
+      </c>
+      <c r="W35" s="21">
+        <v>2</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA35" s="32">
+        <v>2014</v>
+      </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -2289,7 +2420,27 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="AA36" s="4"/>
+      <c r="U36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V36" s="27">
+        <v>42074</v>
+      </c>
+      <c r="W36" s="21">
+        <v>3</v>
+      </c>
+      <c r="X36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" s="32">
+        <v>2014</v>
+      </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -2312,7 +2463,27 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="AA37" s="4"/>
+      <c r="U37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="27">
+        <v>41647</v>
+      </c>
+      <c r="W37" s="22">
+        <v>2</v>
+      </c>
+      <c r="X37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="32">
+        <v>2014</v>
+      </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -2321,7 +2492,7 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
     </row>
-    <row r="38" spans="3:34" ht="179" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:34" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="10" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2510,27 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="AA38" s="4"/>
+      <c r="U38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="27">
+        <v>42102</v>
+      </c>
+      <c r="W38" s="21">
+        <v>3</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="21">
+        <v>182</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" s="32">
+        <v>2014</v>
+      </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -2364,6 +2555,27 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
+      <c r="U39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="34">
+        <v>42142</v>
+      </c>
+      <c r="W39" s="21">
+        <v>3</v>
+      </c>
+      <c r="X39" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="21">
+        <v>115</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA39" s="21">
+        <v>2014</v>
+      </c>
     </row>
     <row r="40" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
@@ -2381,8 +2593,29 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="3:34" ht="62" x14ac:dyDescent="0.3">
+      <c r="U40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="27">
+        <v>42193</v>
+      </c>
+      <c r="W40" s="21">
+        <v>3</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="21">
+        <v>190</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="3:34" ht="30" x14ac:dyDescent="0.3">
       <c r="C41" s="11" t="s">
         <v>12</v>
       </c>
@@ -2404,23 +2637,26 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="4"/>
-      <c r="U41" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="V41" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="X41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z41" s="26" t="s">
-        <v>39</v>
+      <c r="U41" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" s="27">
+        <v>42193</v>
+      </c>
+      <c r="W41" s="28">
+        <v>3</v>
+      </c>
+      <c r="X41" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="28">
+        <v>218</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA41" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="42" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2463,23 +2699,26 @@
         <v>10</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="U42" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V42" s="33">
-        <v>41471</v>
-      </c>
-      <c r="W42" s="32">
-        <v>2</v>
-      </c>
-      <c r="X42" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="32" t="s">
-        <v>0</v>
+      <c r="U42" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="27">
+        <v>41647</v>
+      </c>
+      <c r="W42" s="28">
+        <v>2</v>
+      </c>
+      <c r="X42" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="43" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2520,23 +2759,26 @@
         <v>117</v>
       </c>
       <c r="Q43" s="4"/>
-      <c r="U43" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V43" s="33">
-        <v>41471</v>
-      </c>
-      <c r="W43" s="32">
-        <v>7</v>
-      </c>
-      <c r="X43" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="32">
-        <v>33</v>
-      </c>
-      <c r="Z43" s="32" t="s">
-        <v>41</v>
+      <c r="U43" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="27">
+        <v>42130</v>
+      </c>
+      <c r="W43" s="28">
+        <v>3</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="44" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2579,23 +2821,26 @@
         <v>126</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="U44" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V44" s="33">
-        <v>41471</v>
-      </c>
-      <c r="W44" s="32">
-        <v>3</v>
-      </c>
-      <c r="X44" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="32" t="s">
-        <v>0</v>
+      <c r="U44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V44" s="27">
+        <v>41647</v>
+      </c>
+      <c r="W44" s="28">
+        <v>2</v>
+      </c>
+      <c r="X44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2636,23 +2881,26 @@
         <v>27</v>
       </c>
       <c r="Q45" s="4"/>
-      <c r="U45" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V45" s="33">
-        <v>41471</v>
-      </c>
-      <c r="W45" s="32">
-        <v>1</v>
-      </c>
-      <c r="X45" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="32" t="s">
-        <v>0</v>
+      <c r="U45" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" s="27">
+        <v>41647</v>
+      </c>
+      <c r="W45" s="28">
+        <v>2</v>
+      </c>
+      <c r="X45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="46" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2693,23 +2941,26 @@
         <v>28</v>
       </c>
       <c r="Q46" s="4"/>
-      <c r="U46" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V46" s="33">
-        <v>41473</v>
-      </c>
-      <c r="W46" s="32">
-        <v>3</v>
-      </c>
-      <c r="X46" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="32">
-        <v>40</v>
-      </c>
-      <c r="Z46" s="32" t="s">
-        <v>41</v>
+      <c r="U46" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="27">
+        <v>42164</v>
+      </c>
+      <c r="W46" s="21">
+        <v>3</v>
+      </c>
+      <c r="X46" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>29</v>
+      </c>
+      <c r="Z46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA46" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="47" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2752,23 +3003,26 @@
         <v>122</v>
       </c>
       <c r="Q47" s="4"/>
-      <c r="U47" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="V47" s="33">
-        <v>41473</v>
-      </c>
-      <c r="W47" s="32">
-        <v>7</v>
-      </c>
-      <c r="X47" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="32">
-        <v>48</v>
-      </c>
-      <c r="Z47" s="32" t="s">
-        <v>41</v>
+      <c r="U47" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" s="27">
+        <v>28498</v>
+      </c>
+      <c r="W47" s="21">
+        <v>4</v>
+      </c>
+      <c r="X47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>52</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA47" s="21">
+        <v>2014</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="30" x14ac:dyDescent="0.3">
@@ -2811,25 +3065,28 @@
         <v>107</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="V48" s="33">
-        <v>41473</v>
+        <v>41505</v>
       </c>
       <c r="W48" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X48" s="32" t="s">
         <v>3</v>
       </c>
       <c r="Y48" s="32">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="Z48" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA48" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C49" s="17">
         <v>41473</v>
       </c>
@@ -2861,25 +3118,28 @@
         <v>115</v>
       </c>
       <c r="U49" s="32" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="V49" s="33">
-        <v>41473</v>
+        <v>41564</v>
       </c>
       <c r="W49" s="32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X49" s="32" t="s">
         <v>3</v>
       </c>
       <c r="Y49" s="32">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Z49" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA49" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C50" s="18">
         <v>41473</v>
       </c>
@@ -2906,22 +3166,25 @@
         <v>37</v>
       </c>
       <c r="V50" s="33">
-        <v>41505</v>
+        <v>41564</v>
       </c>
       <c r="W50" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X50" s="32" t="s">
         <v>3</v>
       </c>
       <c r="Y50" s="32">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z50" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA50" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2940,239 +3203,111 @@
         <v>37</v>
       </c>
       <c r="V51" s="33">
-        <v>41564</v>
+        <v>41618</v>
       </c>
       <c r="W51" s="32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X51" s="32" t="s">
         <v>3</v>
       </c>
       <c r="Y51" s="32">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Z51" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA51" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="U52" s="32" t="s">
         <v>37</v>
       </c>
       <c r="V52" s="33">
-        <v>41564</v>
+        <v>41618</v>
       </c>
       <c r="W52" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X52" s="32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="32">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z52" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" ht="30" x14ac:dyDescent="0.3">
+      <c r="AA52" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" ht="30" x14ac:dyDescent="0.3">
       <c r="U53" s="32" t="s">
         <v>37</v>
       </c>
       <c r="V53" s="33">
-        <v>41618</v>
+        <v>41619</v>
       </c>
       <c r="W53" s="32">
+        <v>8</v>
+      </c>
+      <c r="X53" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="32">
+        <v>41</v>
+      </c>
+      <c r="Z53" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA53" s="21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" ht="30" x14ac:dyDescent="0.3">
+      <c r="U54" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="V54" s="27">
+        <v>28498</v>
+      </c>
+      <c r="W54" s="21">
+        <v>4</v>
+      </c>
+      <c r="X54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>35</v>
+      </c>
+      <c r="Z54" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA54" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="75" spans="21:26" ht="62" x14ac:dyDescent="0.25">
+      <c r="U75" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V75" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W75" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="X75" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="X53" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y53" s="32">
-        <v>40</v>
-      </c>
-      <c r="Z53" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U54" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="V54" s="33">
-        <v>41618</v>
-      </c>
-      <c r="W54" s="32">
-        <v>1</v>
-      </c>
-      <c r="X54" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="32">
-        <v>45</v>
-      </c>
-      <c r="Z54" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U55" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="V55" s="33">
-        <v>41619</v>
-      </c>
-      <c r="W55" s="32">
-        <v>8</v>
-      </c>
-      <c r="X55" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y55" s="32">
-        <v>41</v>
-      </c>
-      <c r="Z55" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U56" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V56" s="33">
-        <v>41590</v>
-      </c>
-      <c r="W56" s="32">
-        <v>9</v>
-      </c>
-      <c r="X56" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y56" s="32">
-        <v>117</v>
-      </c>
-      <c r="Z56" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U57" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W57" s="32">
-        <v>11</v>
-      </c>
-      <c r="X57" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y57" s="32">
-        <v>126</v>
-      </c>
-      <c r="Z57" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U58" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W58" s="32">
-        <v>17</v>
-      </c>
-      <c r="X58" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="32">
-        <v>132</v>
-      </c>
-      <c r="Z58" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U59" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W59" s="32">
-        <v>14</v>
-      </c>
-      <c r="X59" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y59" s="32">
-        <v>113</v>
-      </c>
-      <c r="Z59" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U60" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W60" s="32">
-        <v>11</v>
-      </c>
-      <c r="X60" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y60" s="32">
-        <v>122</v>
-      </c>
-      <c r="Z60" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U61" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V61" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W61" s="32">
-        <v>4</v>
-      </c>
-      <c r="X61" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y61" s="32">
-        <v>107</v>
-      </c>
-      <c r="Z61" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" ht="30" x14ac:dyDescent="0.3">
-      <c r="U62" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="33">
-        <v>41591</v>
-      </c>
-      <c r="W62" s="32">
-        <v>4</v>
-      </c>
-      <c r="X62" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="32">
-        <v>115</v>
-      </c>
-      <c r="Z62" s="32" t="s">
-        <v>41</v>
+      <c r="Y75" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z75" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
